--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\SoESCaOMCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\elec\SoESCaOMCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F50060-660F-4DB9-B1CF-9E1A22B78EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2402FD9A-69B1-4EF2-A424-781BB0833193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28110" yWindow="945" windowWidth="25995" windowHeight="13605" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -2106,30 +2106,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2160,6 +2136,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2446,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3175,17 +3175,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="102"/>
+      <c r="A1" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="102" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3205,7 +3205,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3217,17 +3217,17 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="100" t="s">
         <v>153</v>
       </c>
       <c r="B4" s="44">
         <v>0.41228070175438591</v>
       </c>
-      <c r="C4" s="120" t="str">
+      <c r="C4" s="112" t="str">
         <f>'OECD Mapping'!A20</f>
         <v>D26: Computer, electronic and optical products</v>
       </c>
-      <c r="D4" s="120" t="str">
+      <c r="D4" s="112" t="str">
         <f>'OECD Mapping'!B20</f>
         <v>ISIC 26</v>
       </c>
@@ -3239,7 +3239,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="100" t="s">
         <v>154</v>
       </c>
       <c r="B5" s="44">
@@ -3261,17 +3261,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="100" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="44">
         <v>0.11403508771929824</v>
       </c>
-      <c r="C6" s="120" t="str">
+      <c r="C6" s="112" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="D6" s="120" t="str">
+      <c r="D6" s="112" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
@@ -3283,17 +3283,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="100" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="44">
         <v>7.0175438596491224E-2</v>
       </c>
-      <c r="C7" s="120" t="str">
+      <c r="C7" s="112" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="D7" s="120" t="str">
+      <c r="D7" s="112" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
@@ -3305,17 +3305,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="100" t="s">
         <v>157</v>
       </c>
       <c r="B8" s="44">
         <v>8.771929824561403E-2</v>
       </c>
-      <c r="C8" s="120" t="str">
+      <c r="C8" s="112" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="D8" s="120" t="str">
+      <c r="D8" s="112" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
@@ -3327,17 +3327,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="100" t="s">
         <v>158</v>
       </c>
       <c r="B9" s="44">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="C9" s="120" t="str">
+      <c r="C9" s="112" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="D9" s="120" t="str">
+      <c r="D9" s="112" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
@@ -3349,17 +3349,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="100" t="s">
         <v>159</v>
       </c>
       <c r="B10" s="44">
         <v>4.3859649122807015E-2</v>
       </c>
-      <c r="C10" s="120" t="str">
+      <c r="C10" s="112" t="str">
         <f>'OECD Mapping'!A39</f>
         <v>D84: Public admin. and defence; compulsory social security</v>
       </c>
-      <c r="D10" s="120" t="str">
+      <c r="D10" s="112" t="str">
         <f>'OECD Mapping'!B39</f>
         <v>ISIC 84</v>
       </c>
@@ -3371,17 +3371,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="100" t="s">
         <v>160</v>
       </c>
       <c r="B11" s="44">
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="C11" s="120" t="str">
+      <c r="C11" s="112" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="D11" s="120" t="str">
+      <c r="D11" s="112" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
@@ -3393,17 +3393,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="100" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="44">
         <v>2.6315789473684209E-2</v>
       </c>
-      <c r="C12" s="120" t="str">
+      <c r="C12" s="112" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="D12" s="120" t="str">
+      <c r="D12" s="112" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
@@ -3415,17 +3415,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="104" t="s">
         <v>161</v>
       </c>
       <c r="B13" s="46">
         <v>4.3859649122807015E-2</v>
       </c>
-      <c r="C13" s="119" t="str">
+      <c r="C13" s="111" t="str">
         <f>'OECD Mapping'!A38</f>
         <v>D69T82: Other business sector services</v>
       </c>
-      <c r="D13" s="119" t="str">
+      <c r="D13" s="111" t="str">
         <f>'OECD Mapping'!B38</f>
         <v>ISIC 69T82</v>
       </c>
@@ -3437,17 +3437,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="115"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="100" t="s">
         <v>261</v>
       </c>
       <c r="B15" s="10">
@@ -3469,7 +3469,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="103" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="12">
@@ -3492,17 +3492,17 @@
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="116"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="98" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -3522,7 +3522,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4078,10 +4078,10 @@
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="104" t="s">
+      <c r="A54" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="115"/>
+      <c r="B54" s="107"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -4407,17 +4407,17 @@
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="75" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="100" t="s">
+      <c r="A75" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="101"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="102"/>
+      <c r="B75" s="118"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="120"/>
+      <c r="E75" s="120"/>
+      <c r="F75" s="119"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="110" t="s">
+      <c r="A76" s="102" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -4437,7 +4437,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="105" t="s">
+      <c r="A77" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -4445,7 +4445,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="108" t="s">
+      <c r="A78" s="100" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="1"/>
@@ -4456,7 +4456,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="108" t="s">
+      <c r="A79" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B79" s="21">
@@ -4478,7 +4478,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="108" t="s">
+      <c r="A80" s="100" t="s">
         <v>17</v>
       </c>
       <c r="B80" s="21">
@@ -4500,7 +4500,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="108" t="s">
+      <c r="A81" s="100" t="s">
         <v>18</v>
       </c>
       <c r="B81" s="21">
@@ -4522,7 +4522,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="118" t="s">
+      <c r="A82" s="110" t="s">
         <v>19</v>
       </c>
       <c r="B82" s="21">
@@ -4537,7 +4537,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="100" t="s">
         <v>20</v>
       </c>
       <c r="B83" s="21"/>
@@ -4549,7 +4549,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="108" t="s">
+      <c r="A84" s="100" t="s">
         <v>21</v>
       </c>
       <c r="B84" s="21">
@@ -4571,7 +4571,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="108" t="s">
+      <c r="A85" s="100" t="s">
         <v>22</v>
       </c>
       <c r="B85" s="21">
@@ -4593,7 +4593,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="118" t="s">
+      <c r="A86" s="110" t="s">
         <v>23</v>
       </c>
       <c r="B86" s="21">
@@ -4608,7 +4608,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="118" t="s">
+      <c r="A87" s="110" t="s">
         <v>24</v>
       </c>
       <c r="B87" s="21">
@@ -4623,7 +4623,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="105" t="s">
+      <c r="A88" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B88" s="21"/>
@@ -4635,7 +4635,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="108" t="s">
+      <c r="A89" s="100" t="s">
         <v>26</v>
       </c>
       <c r="B89" s="21">
@@ -4657,7 +4657,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="108" t="s">
+      <c r="A90" s="100" t="s">
         <v>27</v>
       </c>
       <c r="B90" s="21">
@@ -4679,7 +4679,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="100" t="s">
         <v>28</v>
       </c>
       <c r="B91" s="21">
@@ -4701,7 +4701,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="108" t="s">
+      <c r="A92" s="100" t="s">
         <v>29</v>
       </c>
       <c r="B92" s="21">
@@ -4723,7 +4723,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="108" t="s">
+      <c r="A93" s="100" t="s">
         <v>30</v>
       </c>
       <c r="B93" s="21">
@@ -4745,7 +4745,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="108" t="s">
+      <c r="A94" s="100" t="s">
         <v>31</v>
       </c>
       <c r="B94" s="21">
@@ -4767,7 +4767,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="108" t="s">
+      <c r="A95" s="100" t="s">
         <v>32</v>
       </c>
       <c r="B95" s="21">
@@ -4789,7 +4789,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="108" t="s">
+      <c r="A96" s="100" t="s">
         <v>33</v>
       </c>
       <c r="B96" s="21">
@@ -4811,7 +4811,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="118" t="s">
+      <c r="A97" s="110" t="s">
         <v>34</v>
       </c>
       <c r="B97" s="21">
@@ -4824,7 +4824,7 @@
       <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="109" t="s">
         <v>35</v>
       </c>
       <c r="B98" s="24">
@@ -4837,17 +4837,17 @@
       <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="104" t="s">
+      <c r="A99" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="115"/>
+      <c r="B99" s="107"/>
       <c r="C99" s="28"/>
       <c r="D99" s="29"/>
       <c r="E99" s="29"/>
       <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="109" t="s">
+      <c r="A100" s="101" t="s">
         <v>20</v>
       </c>
       <c r="B100" s="21">
@@ -4869,7 +4869,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="109" t="s">
+      <c r="A101" s="101" t="s">
         <v>36</v>
       </c>
       <c r="B101" s="21">
@@ -4891,7 +4891,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="101" t="s">
         <v>37</v>
       </c>
       <c r="B102" s="21">
@@ -4913,7 +4913,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="114" t="s">
+      <c r="A103" s="106" t="s">
         <v>35</v>
       </c>
       <c r="B103" s="31">
@@ -4926,17 +4926,17 @@
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="104" t="s">
+      <c r="A104" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B104" s="115"/>
+      <c r="B104" s="107"/>
       <c r="C104" s="28"/>
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
       <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="109" t="s">
+      <c r="A105" s="101" t="s">
         <v>39</v>
       </c>
       <c r="B105" s="21">
@@ -4958,7 +4958,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="109" t="s">
+      <c r="A106" s="101" t="s">
         <v>40</v>
       </c>
       <c r="B106" s="21">
@@ -4980,7 +4980,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="109" t="s">
+      <c r="A107" s="101" t="s">
         <v>29</v>
       </c>
       <c r="B107" s="21">
@@ -5002,7 +5002,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="114" t="s">
+      <c r="A108" s="106" t="s">
         <v>35</v>
       </c>
       <c r="B108" s="34">
@@ -5016,17 +5016,17 @@
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="110" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A110" s="100" t="s">
+      <c r="A110" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="101"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="103"/>
-      <c r="E110" s="103"/>
-      <c r="F110" s="102"/>
+      <c r="B110" s="118"/>
+      <c r="C110" s="118"/>
+      <c r="D110" s="120"/>
+      <c r="E110" s="120"/>
+      <c r="F110" s="119"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="110" t="s">
+      <c r="A111" s="102" t="s">
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -5046,7 +5046,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="105" t="s">
+      <c r="A112" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -5058,12 +5058,12 @@
       <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="100" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="108" t="s">
+      <c r="A114" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B114" s="35">
@@ -5085,7 +5085,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="108" t="s">
+      <c r="A115" s="100" t="s">
         <v>17</v>
       </c>
       <c r="B115" s="35">
@@ -5107,7 +5107,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="108" t="s">
+      <c r="A116" s="100" t="s">
         <v>18</v>
       </c>
       <c r="B116" s="35">
@@ -5129,7 +5129,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="108" t="s">
+      <c r="A117" s="100" t="s">
         <v>43</v>
       </c>
       <c r="B117" s="35">
@@ -5143,7 +5143,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="108" t="s">
+      <c r="A118" s="100" t="s">
         <v>44</v>
       </c>
       <c r="B118" s="36"/>
@@ -5155,7 +5155,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="108" t="s">
+      <c r="A119" s="100" t="s">
         <v>21</v>
       </c>
       <c r="B119" s="36">
@@ -5177,7 +5177,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="108" t="s">
+      <c r="A120" s="100" t="s">
         <v>45</v>
       </c>
       <c r="B120" s="35">
@@ -5199,7 +5199,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="108" t="s">
+      <c r="A121" s="100" t="s">
         <v>46</v>
       </c>
       <c r="B121" s="35">
@@ -5221,7 +5221,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="108" t="s">
+      <c r="A122" s="100" t="s">
         <v>43</v>
       </c>
       <c r="B122" s="35">
@@ -5235,7 +5235,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="108" t="s">
+      <c r="A123" s="100" t="s">
         <v>24</v>
       </c>
       <c r="B123" s="36">
@@ -5249,7 +5249,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="105" t="s">
+      <c r="A124" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B124" s="36"/>
@@ -5261,7 +5261,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="100" t="s">
         <v>47</v>
       </c>
       <c r="B125" s="36">
@@ -5283,7 +5283,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="108" t="s">
+      <c r="A126" s="100" t="s">
         <v>27</v>
       </c>
       <c r="B126" s="35">
@@ -5305,7 +5305,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="108" t="s">
+      <c r="A127" s="100" t="s">
         <v>28</v>
       </c>
       <c r="B127" s="35">
@@ -5327,7 +5327,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="108" t="s">
+      <c r="A128" s="100" t="s">
         <v>48</v>
       </c>
       <c r="B128" s="35">
@@ -5349,7 +5349,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="108" t="s">
+      <c r="A129" s="100" t="s">
         <v>30</v>
       </c>
       <c r="B129" s="35">
@@ -5371,7 +5371,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="108" t="s">
+      <c r="A130" s="100" t="s">
         <v>33</v>
       </c>
       <c r="B130" s="35">
@@ -5393,7 +5393,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="100" t="s">
         <v>34</v>
       </c>
       <c r="B131" s="35">
@@ -5405,7 +5405,7 @@
       <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="105" t="s">
+      <c r="A132" s="97" t="s">
         <v>49</v>
       </c>
       <c r="B132" s="36">
@@ -5419,7 +5419,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="116" t="s">
+      <c r="A133" s="108" t="s">
         <v>50</v>
       </c>
       <c r="B133" s="37">
@@ -5434,7 +5434,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="104" t="s">
+      <c r="A134" s="96" t="s">
         <v>8</v>
       </c>
       <c r="B134" s="40"/>
@@ -5446,7 +5446,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="109" t="s">
+      <c r="A135" s="101" t="s">
         <v>20</v>
       </c>
       <c r="B135" s="17">
@@ -5468,7 +5468,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="109" t="s">
+      <c r="A136" s="101" t="s">
         <v>36</v>
       </c>
       <c r="B136" s="17">
@@ -5490,7 +5490,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="109" t="s">
+      <c r="A137" s="101" t="s">
         <v>37</v>
       </c>
       <c r="B137" s="17">
@@ -5512,7 +5512,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="114" t="s">
+      <c r="A138" s="106" t="s">
         <v>35</v>
       </c>
       <c r="B138" s="42">
@@ -5527,17 +5527,17 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="104" t="s">
+      <c r="A139" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B139" s="115"/>
+      <c r="B139" s="107"/>
       <c r="C139" s="28"/>
       <c r="D139" s="29"/>
       <c r="E139" s="29"/>
       <c r="F139" s="9"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="109" t="s">
+      <c r="A140" s="101" t="s">
         <v>51</v>
       </c>
       <c r="B140" s="21">
@@ -5559,7 +5559,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="109" t="s">
+      <c r="A141" s="101" t="s">
         <v>40</v>
       </c>
       <c r="B141" s="21">
@@ -5581,7 +5581,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="101" t="s">
         <v>29</v>
       </c>
       <c r="B142" s="21">
@@ -5603,7 +5603,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="114" t="s">
+      <c r="A143" s="106" t="s">
         <v>35</v>
       </c>
       <c r="B143" s="34">
@@ -5617,17 +5617,17 @@
     </row>
     <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="145" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A145" s="96" t="s">
+      <c r="A145" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="97"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="98"/>
-      <c r="E145" s="98"/>
-      <c r="F145" s="99"/>
+      <c r="B145" s="114"/>
+      <c r="C145" s="114"/>
+      <c r="D145" s="115"/>
+      <c r="E145" s="115"/>
+      <c r="F145" s="116"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="110" t="s">
+      <c r="A146" s="102" t="s">
         <v>1</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -5647,7 +5647,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="105" t="s">
+      <c r="A147" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -5659,7 +5659,7 @@
       <c r="F147" s="11"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="108" t="s">
+      <c r="A148" s="100" t="s">
         <v>53</v>
       </c>
       <c r="B148" s="44"/>
@@ -5669,7 +5669,7 @@
       <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="108" t="s">
+      <c r="A149" s="100" t="s">
         <v>54</v>
       </c>
       <c r="B149" s="44">
@@ -5688,7 +5688,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="108" t="s">
+      <c r="A150" s="100" t="s">
         <v>57</v>
       </c>
       <c r="B150" s="44">
@@ -5710,7 +5710,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="108" t="s">
+      <c r="A151" s="100" t="s">
         <v>58</v>
       </c>
       <c r="B151" s="44">
@@ -5732,7 +5732,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="108" t="s">
+      <c r="A152" s="100" t="s">
         <v>59</v>
       </c>
       <c r="B152" s="44">
@@ -5754,7 +5754,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="108" t="s">
+      <c r="A153" s="100" t="s">
         <v>60</v>
       </c>
       <c r="B153" s="44">
@@ -5776,7 +5776,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="108" t="s">
+      <c r="A154" s="100" t="s">
         <v>61</v>
       </c>
       <c r="B154" s="44">
@@ -5798,7 +5798,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="100" t="s">
         <v>62</v>
       </c>
       <c r="B155" s="44">
@@ -5820,7 +5820,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="108" t="s">
+      <c r="A156" s="100" t="s">
         <v>63</v>
       </c>
       <c r="B156" s="44">
@@ -5842,7 +5842,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="108" t="s">
+      <c r="A157" s="100" t="s">
         <v>64</v>
       </c>
       <c r="B157" s="44">
@@ -5864,7 +5864,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="112" t="s">
+      <c r="A158" s="104" t="s">
         <v>11</v>
       </c>
       <c r="B158" s="46">
@@ -5878,7 +5878,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="104" t="s">
+      <c r="A159" s="96" t="s">
         <v>8</v>
       </c>
       <c r="B159" s="48"/>
@@ -5888,7 +5888,7 @@
       <c r="F159" s="9"/>
     </row>
     <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="112" t="s">
+      <c r="A160" s="104" t="s">
         <v>65</v>
       </c>
       <c r="B160" s="49">
@@ -5910,7 +5910,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" s="104" t="s">
+      <c r="A161" s="96" t="s">
         <v>38</v>
       </c>
       <c r="B161" s="48"/>
@@ -5943,17 +5943,17 @@
     </row>
     <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="164" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A164" s="96" t="s">
+      <c r="A164" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="97"/>
-      <c r="C164" s="97"/>
-      <c r="D164" s="98"/>
-      <c r="E164" s="98"/>
-      <c r="F164" s="99"/>
+      <c r="B164" s="114"/>
+      <c r="C164" s="114"/>
+      <c r="D164" s="115"/>
+      <c r="E164" s="115"/>
+      <c r="F164" s="116"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="110" t="s">
+      <c r="A165" s="102" t="s">
         <v>1</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -5973,7 +5973,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="105" t="s">
+      <c r="A166" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -5985,7 +5985,7 @@
       <c r="F166" s="11"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="113" t="s">
+      <c r="A167" s="105" t="s">
         <v>72</v>
       </c>
       <c r="C167" s="50"/>
@@ -5996,7 +5996,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="108" t="s">
+      <c r="A168" s="100" t="s">
         <v>74</v>
       </c>
       <c r="B168" s="44">
@@ -6018,7 +6018,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="108" t="s">
+      <c r="A169" s="100" t="s">
         <v>75</v>
       </c>
       <c r="B169" s="44">
@@ -6040,7 +6040,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" s="108" t="s">
+      <c r="A170" s="100" t="s">
         <v>76</v>
       </c>
       <c r="B170" s="44">
@@ -6054,7 +6054,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="108" t="s">
+      <c r="A171" s="100" t="s">
         <v>77</v>
       </c>
       <c r="B171" s="44"/>
@@ -6066,7 +6066,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="108" t="s">
+      <c r="A172" s="100" t="s">
         <v>78</v>
       </c>
       <c r="B172" s="44">
@@ -6088,7 +6088,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="108" t="s">
+      <c r="A173" s="100" t="s">
         <v>79</v>
       </c>
       <c r="B173" s="44">
@@ -6102,7 +6102,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="108" t="s">
+      <c r="A174" s="100" t="s">
         <v>80</v>
       </c>
       <c r="B174" s="44"/>
@@ -6114,7 +6114,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="108" t="s">
+      <c r="A175" s="100" t="s">
         <v>81</v>
       </c>
       <c r="B175" s="44">
@@ -6136,7 +6136,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" s="108" t="s">
+      <c r="A176" s="100" t="s">
         <v>82</v>
       </c>
       <c r="B176" s="44">
@@ -6158,7 +6158,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="108" t="s">
+      <c r="A177" s="100" t="s">
         <v>83</v>
       </c>
       <c r="B177" s="44">
@@ -6180,7 +6180,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="108" t="s">
+      <c r="A178" s="100" t="s">
         <v>84</v>
       </c>
       <c r="B178" s="44">
@@ -6202,7 +6202,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="108" t="s">
+      <c r="A179" s="100" t="s">
         <v>85</v>
       </c>
       <c r="B179" s="10">
@@ -6224,7 +6224,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="108" t="s">
+      <c r="A180" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B180" s="10">
@@ -6246,7 +6246,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="108" t="s">
+      <c r="A181" s="100" t="s">
         <v>87</v>
       </c>
       <c r="B181" s="10">
@@ -6268,7 +6268,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="108" t="s">
+      <c r="A182" s="100" t="s">
         <v>88</v>
       </c>
       <c r="B182" s="10">
@@ -6282,7 +6282,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="108" t="s">
+      <c r="A183" s="100" t="s">
         <v>89</v>
       </c>
       <c r="B183" s="10"/>
@@ -6294,7 +6294,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="108" t="s">
+      <c r="A184" s="100" t="s">
         <v>78</v>
       </c>
       <c r="B184" s="10">
@@ -6316,7 +6316,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="108" t="s">
+      <c r="A185" s="100" t="s">
         <v>90</v>
       </c>
       <c r="B185" s="10">
@@ -6338,7 +6338,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="108" t="s">
+      <c r="A186" s="100" t="s">
         <v>91</v>
       </c>
       <c r="B186" s="10">
@@ -6360,7 +6360,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="108" t="s">
+      <c r="A187" s="100" t="s">
         <v>92</v>
       </c>
       <c r="B187" s="10">
@@ -6382,7 +6382,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="108" t="s">
+      <c r="A188" s="100" t="s">
         <v>93</v>
       </c>
       <c r="B188" s="10">
@@ -6404,7 +6404,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="108" t="s">
+      <c r="A189" s="100" t="s">
         <v>94</v>
       </c>
       <c r="B189" s="10">
@@ -6426,7 +6426,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="108" t="s">
+      <c r="A190" s="100" t="s">
         <v>95</v>
       </c>
       <c r="B190" s="10">
@@ -6448,7 +6448,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="108" t="s">
+      <c r="A191" s="100" t="s">
         <v>96</v>
       </c>
       <c r="B191" s="10">
@@ -6470,7 +6470,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="108" t="s">
+      <c r="A192" s="100" t="s">
         <v>97</v>
       </c>
       <c r="B192" s="10">
@@ -6484,7 +6484,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="108" t="s">
+      <c r="A193" s="100" t="s">
         <v>25</v>
       </c>
       <c r="B193" s="10"/>
@@ -6496,7 +6496,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="108" t="s">
+      <c r="A194" s="100" t="s">
         <v>98</v>
       </c>
       <c r="B194" s="10">
@@ -6518,7 +6518,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="108" t="s">
+      <c r="A195" s="100" t="s">
         <v>99</v>
       </c>
       <c r="B195" s="10">
@@ -6540,7 +6540,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="108" t="s">
+      <c r="A196" s="100" t="s">
         <v>100</v>
       </c>
       <c r="B196" s="10">
@@ -6562,7 +6562,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="108" t="s">
+      <c r="A197" s="100" t="s">
         <v>101</v>
       </c>
       <c r="B197" s="10">
@@ -6584,7 +6584,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="108" t="s">
+      <c r="A198" s="100" t="s">
         <v>102</v>
       </c>
       <c r="B198" s="10">
@@ -6606,7 +6606,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="108" t="s">
+      <c r="A199" s="100" t="s">
         <v>34</v>
       </c>
       <c r="B199" s="10">
@@ -6620,7 +6620,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="108" t="s">
+      <c r="A200" s="100" t="s">
         <v>103</v>
       </c>
       <c r="B200" s="10">
@@ -6634,7 +6634,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="108" t="s">
+      <c r="A201" s="100" t="s">
         <v>50</v>
       </c>
       <c r="B201" s="10">
@@ -6648,7 +6648,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="112" t="s">
+      <c r="A202" s="104" t="s">
         <v>11</v>
       </c>
       <c r="B202" s="53">
@@ -6662,7 +6662,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="104" t="s">
+      <c r="A203" s="96" t="s">
         <v>8</v>
       </c>
       <c r="B203" s="48"/>
@@ -6674,7 +6674,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="108" t="s">
+      <c r="A204" s="100" t="s">
         <v>104</v>
       </c>
       <c r="B204" s="10">
@@ -6696,7 +6696,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="108" t="s">
+      <c r="A205" s="100" t="s">
         <v>105</v>
       </c>
       <c r="B205" s="10"/>
@@ -6708,7 +6708,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="108" t="s">
+      <c r="A206" s="100" t="s">
         <v>106</v>
       </c>
       <c r="B206" s="10">
@@ -6730,7 +6730,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="108" t="s">
+      <c r="A207" s="100" t="s">
         <v>101</v>
       </c>
       <c r="B207" s="10">
@@ -6752,7 +6752,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="108" t="s">
+      <c r="A208" s="100" t="s">
         <v>107</v>
       </c>
       <c r="B208" s="10">
@@ -6774,7 +6774,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="108" t="s">
+      <c r="A209" s="100" t="s">
         <v>108</v>
       </c>
       <c r="B209" s="10">
@@ -6796,7 +6796,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="108" t="s">
+      <c r="A210" s="100" t="s">
         <v>109</v>
       </c>
       <c r="B210" s="10">
@@ -6818,7 +6818,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="108" t="s">
+      <c r="A211" s="100" t="s">
         <v>110</v>
       </c>
       <c r="B211" s="10">
@@ -6840,7 +6840,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="108" t="s">
+      <c r="A212" s="100" t="s">
         <v>111</v>
       </c>
       <c r="B212" s="10">
@@ -6854,7 +6854,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A213" s="108" t="s">
+      <c r="A213" s="100" t="s">
         <v>103</v>
       </c>
       <c r="B213" s="10">
@@ -6868,7 +6868,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="108" t="s">
+      <c r="A214" s="100" t="s">
         <v>50</v>
       </c>
       <c r="B214" s="10">
@@ -6882,7 +6882,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="112" t="s">
+      <c r="A215" s="104" t="s">
         <v>112</v>
       </c>
       <c r="B215" s="53">
@@ -6896,7 +6896,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" s="104" t="s">
+      <c r="A216" s="96" t="s">
         <v>38</v>
       </c>
       <c r="B216" s="48"/>
@@ -6906,7 +6906,7 @@
       <c r="F216" s="9"/>
     </row>
     <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="111" t="s">
+      <c r="A217" s="103" t="s">
         <v>312</v>
       </c>
       <c r="B217" s="42">
@@ -6929,17 +6929,17 @@
     </row>
     <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="219" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A219" s="96" t="s">
+      <c r="A219" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="B219" s="97"/>
-      <c r="C219" s="97"/>
-      <c r="D219" s="98"/>
-      <c r="E219" s="98"/>
-      <c r="F219" s="99"/>
+      <c r="B219" s="114"/>
+      <c r="C219" s="114"/>
+      <c r="D219" s="115"/>
+      <c r="E219" s="115"/>
+      <c r="F219" s="116"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="110" t="s">
+      <c r="A220" s="102" t="s">
         <v>1</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -6959,7 +6959,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A221" s="105" t="s">
+      <c r="A221" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -7103,7 +7103,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A228" s="104" t="s">
+      <c r="A228" s="96" t="s">
         <v>8</v>
       </c>
       <c r="B228" s="48"/>
@@ -7135,7 +7135,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" s="104" t="s">
+      <c r="A230" s="96" t="s">
         <v>38</v>
       </c>
       <c r="B230" s="48"/>
@@ -7145,7 +7145,7 @@
       <c r="F230" s="9"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A231" s="108" t="s">
+      <c r="A231" s="100" t="s">
         <v>120</v>
       </c>
       <c r="B231" s="56">
@@ -7167,7 +7167,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A232" s="108" t="s">
+      <c r="A232" s="100" t="s">
         <v>121</v>
       </c>
       <c r="B232" s="56">
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="111" t="s">
+      <c r="A233" s="103" t="s">
         <v>122</v>
       </c>
       <c r="B233" s="57">
@@ -7212,17 +7212,17 @@
     </row>
     <row r="234" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="235" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A235" s="96" t="s">
+      <c r="A235" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="97"/>
-      <c r="C235" s="97"/>
-      <c r="D235" s="98"/>
-      <c r="E235" s="98"/>
-      <c r="F235" s="99"/>
+      <c r="B235" s="114"/>
+      <c r="C235" s="114"/>
+      <c r="D235" s="115"/>
+      <c r="E235" s="115"/>
+      <c r="F235" s="116"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A236" s="110" t="s">
+      <c r="A236" s="102" t="s">
         <v>1</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -7242,7 +7242,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" s="105" t="s">
+      <c r="A237" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -7352,7 +7352,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A244" s="109" t="s">
+      <c r="A244" s="101" t="s">
         <v>238</v>
       </c>
       <c r="B244" s="10">
@@ -7396,7 +7396,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="109" t="s">
+      <c r="A246" s="101" t="s">
         <v>240</v>
       </c>
       <c r="B246" s="10">
@@ -7418,7 +7418,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="108" t="s">
+      <c r="A247" s="100" t="s">
         <v>234</v>
       </c>
       <c r="B247" s="10">
@@ -7430,7 +7430,7 @@
       <c r="F247" s="11"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A248" s="108" t="s">
+      <c r="A248" s="100" t="s">
         <v>76</v>
       </c>
       <c r="B248" s="10">
@@ -7442,7 +7442,7 @@
       <c r="F248" s="11"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A249" s="108" t="s">
+      <c r="A249" s="100" t="s">
         <v>241</v>
       </c>
       <c r="B249" s="10"/>
@@ -7870,7 +7870,7 @@
       <c r="F271" s="7"/>
     </row>
     <row r="272" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="107" t="s">
+      <c r="A272" s="99" t="s">
         <v>8</v>
       </c>
       <c r="B272" s="80"/>
@@ -8176,17 +8176,17 @@
       <c r="F288" s="7"/>
     </row>
     <row r="289" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A289" s="96" t="s">
+      <c r="A289" s="113" t="s">
         <v>341</v>
       </c>
-      <c r="B289" s="97"/>
-      <c r="C289" s="97"/>
-      <c r="D289" s="98"/>
-      <c r="E289" s="98"/>
-      <c r="F289" s="99"/>
+      <c r="B289" s="114"/>
+      <c r="C289" s="114"/>
+      <c r="D289" s="115"/>
+      <c r="E289" s="115"/>
+      <c r="F289" s="116"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290" s="106" t="s">
+      <c r="A290" s="98" t="s">
         <v>1</v>
       </c>
       <c r="B290" s="43" t="s">
@@ -8206,7 +8206,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291" s="105" t="s">
+      <c r="A291" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B291" s="1" t="s">
@@ -8524,7 +8524,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A307" s="104" t="s">
+      <c r="A307" s="96" t="s">
         <v>8</v>
       </c>
       <c r="B307" s="48"/>
@@ -8622,7 +8622,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A312" s="104" t="s">
+      <c r="A312" s="96" t="s">
         <v>38</v>
       </c>
       <c r="B312" s="88"/>
@@ -8659,17 +8659,17 @@
       <c r="D314" s="84"/>
     </row>
     <row r="315" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A315" s="96" t="s">
+      <c r="A315" s="113" t="s">
         <v>369</v>
       </c>
-      <c r="B315" s="97"/>
-      <c r="C315" s="97"/>
-      <c r="D315" s="98"/>
-      <c r="E315" s="98"/>
-      <c r="F315" s="99"/>
+      <c r="B315" s="114"/>
+      <c r="C315" s="114"/>
+      <c r="D315" s="115"/>
+      <c r="E315" s="115"/>
+      <c r="F315" s="116"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A316" s="106" t="s">
+      <c r="A316" s="98" t="s">
         <v>1</v>
       </c>
       <c r="B316" s="43" t="s">
@@ -8689,7 +8689,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A317" s="105" t="s">
+      <c r="A317" s="97" t="s">
         <v>6</v>
       </c>
       <c r="B317" s="1" t="s">
@@ -9525,7 +9525,7 @@
       <c r="F364" s="59"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A365" s="104" t="s">
+      <c r="A365" s="96" t="s">
         <v>8</v>
       </c>
       <c r="B365" s="48"/>
@@ -9900,8 +9900,8 @@
   </sheetPr>
   <dimension ref="A1:AQ60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49:S50"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25:AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18762,7 +18762,7 @@
         <v>435</v>
       </c>
       <c r="E60" s="93" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F60" s="93" t="s">
         <v>165</v>
@@ -18789,7 +18789,7 @@
         <v>430</v>
       </c>
       <c r="N60" s="93" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O60" s="93" t="s">
         <v>437</v>
@@ -18804,13 +18804,13 @@
         <v>440</v>
       </c>
       <c r="S60" s="93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="T60" s="93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U60" s="93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V60" s="93" t="s">
         <v>175</v>
@@ -18819,7 +18819,7 @@
         <v>176</v>
       </c>
       <c r="X60" s="93" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y60" s="93" t="s">
         <v>178</v>
@@ -18891,7 +18891,7 @@
   </sheetPr>
   <dimension ref="A1:AQ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -19413,7 +19413,7 @@
       </c>
       <c r="E4" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!E$1)</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F4" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!F$1)</f>
@@ -19493,7 +19493,7 @@
       </c>
       <c r="Y4" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!Y$1)</f>
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="Z4" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B5:$AQ5,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!Z$1)</f>
@@ -19650,11 +19650,11 @@
       </c>
       <c r="U5" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!U$1)</f>
-        <v>0</v>
+        <v>0.1051918352584755</v>
       </c>
       <c r="V5" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
-        <v>0.21344041686127596</v>
+        <v>0.10824858160280046</v>
       </c>
       <c r="W5" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B6:$AQ6,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!W$1)</f>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="S6" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!S$1)</f>
-        <v>0</v>
+        <v>0.10948167235952777</v>
       </c>
       <c r="T6" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!T$1)</f>
@@ -19823,11 +19823,11 @@
       </c>
       <c r="U6" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!U$1)</f>
-        <v>0</v>
+        <v>1.2169934344764067E-2</v>
       </c>
       <c r="V6" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
-        <v>0.66148586999770631</v>
+        <v>0.53983426329341444</v>
       </c>
       <c r="W6" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B7:$AQ7,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!W$1)</f>
@@ -19992,15 +19992,15 @@
       </c>
       <c r="T7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!T$1)</f>
-        <v>0</v>
+        <v>0.41228070175438591</v>
       </c>
       <c r="U7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!U$1)</f>
-        <v>0</v>
+        <v>0.24561403508771928</v>
       </c>
       <c r="V7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
-        <v>0.6578947368421052</v>
+        <v>0</v>
       </c>
       <c r="W7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!W$1)</f>
@@ -20161,7 +20161,7 @@
       </c>
       <c r="S8" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!S$1)</f>
-        <v>0</v>
+        <v>0.35129388368869774</v>
       </c>
       <c r="T8" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!T$1)</f>
@@ -20169,11 +20169,11 @@
       </c>
       <c r="U8" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!U$1)</f>
-        <v>0</v>
+        <v>2.0511704521724881E-2</v>
       </c>
       <c r="V8" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
-        <v>0.64246368900188089</v>
+        <v>0.27065810079145824</v>
       </c>
       <c r="W8" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B9:$AQ9,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!W$1)</f>
@@ -20451,7 +20451,7 @@
       </c>
       <c r="E10" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!E$1)</f>
-        <v>0</v>
+        <v>2.851903439375358E-2</v>
       </c>
       <c r="F10" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!F$1)</f>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="S10" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!S$1)</f>
-        <v>0</v>
+        <v>1.5283905098620277E-3</v>
       </c>
       <c r="T10" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!T$1)</f>
@@ -20519,7 +20519,7 @@
       </c>
       <c r="V10" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
-        <v>0.46209826405171966</v>
+        <v>0.46056987354185763</v>
       </c>
       <c r="W10" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!W$1)</f>
@@ -20531,7 +20531,7 @@
       </c>
       <c r="Y10" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!Y$1)</f>
-        <v>2.851903439375358E-2</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B11:$AQ11,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!Z$1)</f>
@@ -21199,7 +21199,7 @@
       </c>
       <c r="S14" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!S$1)</f>
-        <v>0</v>
+        <v>4.6576763057539591E-2</v>
       </c>
       <c r="T14" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!T$1)</f>
@@ -21207,11 +21207,11 @@
       </c>
       <c r="U14" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!U$1)</f>
-        <v>0</v>
+        <v>0.27562360980762241</v>
       </c>
       <c r="V14" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
-        <v>0.37645879227801243</v>
+        <v>5.4258419412850437E-2</v>
       </c>
       <c r="W14" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B15:$AQ15,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!W$1)</f>
@@ -22587,11 +22587,11 @@
       </c>
       <c r="U5" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B25:$AQ25,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!U$1)</f>
-        <v>0</v>
+        <v>0.19317941441524109</v>
       </c>
       <c r="V5" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B25:$AQ25,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
-        <v>0.28976912162286161</v>
+        <v>9.6589707207620543E-2</v>
       </c>
       <c r="W5" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B25:$AQ25,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!W$1)</f>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="T7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B27:$AQ27,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!T$1)</f>
-        <v>0</v>
+        <v>0.64649275362318703</v>
       </c>
       <c r="U7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B27:$AQ27,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!U$1)</f>
@@ -22937,7 +22937,7 @@
       </c>
       <c r="V7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B27:$AQ27,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
-        <v>0.64649275362318703</v>
+        <v>0</v>
       </c>
       <c r="W7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B27:$AQ27,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!W$1)</f>
@@ -23098,7 +23098,7 @@
       </c>
       <c r="S8" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B28:$AQ28,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!S$1)</f>
-        <v>0</v>
+        <v>0.42277656301083044</v>
       </c>
       <c r="T8" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B28:$AQ28,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!T$1)</f>
@@ -23110,7 +23110,7 @@
       </c>
       <c r="V8" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B28:$AQ28,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
-        <v>0.42277656301083044</v>
+        <v>0</v>
       </c>
       <c r="W8" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B28:$AQ28,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!W$1)</f>

--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\eps-eu\InputData\elec\SoESCaOMCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\SoESCaOMCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2402FD9A-69B1-4EF2-A424-781BB0833193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F17DFEF-C0B0-48FA-A3B4-FF41FA634D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28110" yWindow="945" windowWidth="25995" windowHeight="13605" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="970" yWindow="870" windowWidth="16090" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
     <sheet name="OECD Mapping" sheetId="8" r:id="rId2"/>
     <sheet name="Cost Breakdowns" sheetId="9" r:id="rId3"/>
-    <sheet name="Pre ISIC Consolidation" sheetId="7" r:id="rId4"/>
-    <sheet name="SoESCaOMCbIC-capital" sheetId="3" r:id="rId5"/>
-    <sheet name="SoESCaOMCbIC-fixedOM" sheetId="6" r:id="rId6"/>
-    <sheet name="SoESCaOMCbIC-variableOM" sheetId="5" r:id="rId7"/>
+    <sheet name="graphs_nrel" sheetId="10" r:id="rId4"/>
+    <sheet name="Pre ISIC Consolidation" sheetId="7" r:id="rId5"/>
+    <sheet name="SoESCaOMCbIC-capital" sheetId="3" r:id="rId6"/>
+    <sheet name="SoESCaOMCbIC-fixedOM" sheetId="6" r:id="rId7"/>
+    <sheet name="SoESCaOMCbIC-variableOM" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="476">
   <si>
     <t>Solar PV</t>
   </si>
@@ -693,15 +694,6 @@
     <t>NREL</t>
   </si>
   <si>
-    <t>U.S. Solar Photovoltaic System Cost Benchmark: Q1 2018</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy19osti/72399.pdf</t>
-  </si>
-  <si>
-    <t>Figure 28</t>
-  </si>
-  <si>
     <t>JEDI Coal Model</t>
   </si>
   <si>
@@ -1414,6 +1406,69 @@
   </si>
   <si>
     <t>EU ISIC Groupings</t>
+  </si>
+  <si>
+    <t>U.S. Solar Photovoltaic System Cost Benchmark: Q1 2021</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy22osti/80694.pdf</t>
+  </si>
+  <si>
+    <t>Figure 24</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t>Developer overhead</t>
+  </si>
+  <si>
+    <t>contingency</t>
+  </si>
+  <si>
+    <t>transmission line</t>
+  </si>
+  <si>
+    <t>interconnection fee</t>
+  </si>
+  <si>
+    <t>permitting fee</t>
+  </si>
+  <si>
+    <t>sale tax</t>
+  </si>
+  <si>
+    <t>epc overhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">install labor </t>
+  </si>
+  <si>
+    <t>electrical bos</t>
+  </si>
+  <si>
+    <t>structural bos</t>
+  </si>
+  <si>
+    <t>bidirectional inverter</t>
+  </si>
+  <si>
+    <t>solar inverter</t>
+  </si>
+  <si>
+    <t>lithiomion battery</t>
+  </si>
+  <si>
+    <t>pv module</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1583,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1564,8 +1619,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1924,6 +1991,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1931,7 +2007,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2161,6 +2237,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2179,6 +2271,97 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>36902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84B804B-45A2-48B6-9C02-81DF2C4E6E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="62647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="400050"/>
+          <a:ext cx="5835650" cy="9580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414867</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317664</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>51719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B6B8FA-446E-442D-9343-E000BCFE30B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="80972"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5884938" y="369207"/>
+          <a:ext cx="2941726" cy="9661083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2446,7 +2629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2459,7 +2644,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2467,13 +2652,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2484,12 +2669,12 @@
         <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="64">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D5" s="64">
         <v>2016</v>
@@ -2500,18 +2685,18 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" t="s">
         <v>217</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>220</v>
-      </c>
-      <c r="F6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>15</v>
@@ -2522,24 +2707,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="63" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -2566,18 +2751,18 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>42</v>
@@ -2588,24 +2773,24 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -2613,10 +2798,10 @@
         <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -2632,15 +2817,15 @@
     </row>
     <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="90" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C20" s="91"/>
       <c r="D20" s="90" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="90" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
@@ -2653,29 +2838,29 @@
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="92" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="63" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F24" s="63" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -2702,21 +2887,21 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F28" s="52" t="s">
         <v>114</v>
@@ -2724,64 +2909,63 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="58" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2825,23 +3009,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" t="s">
         <v>433</v>
-      </c>
-      <c r="B3" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>164</v>
@@ -2897,18 +3081,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2921,34 +3105,34 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B18" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3009,26 +3193,26 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B26" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -3160,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A99930-A701-4BCB-B1A9-FEC0E5C6E031}">
   <dimension ref="A1:F381"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="A11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3220,8 +3404,9 @@
       <c r="A4" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="44">
-        <v>0.41228070175438591</v>
+      <c r="B4" s="132">
+        <f>graphs_nrel!U5</f>
+        <v>0.39285714285714285</v>
       </c>
       <c r="C4" s="112" t="str">
         <f>'OECD Mapping'!A20</f>
@@ -3242,8 +3427,9 @@
       <c r="A5" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="44">
-        <v>0.13157894736842105</v>
+      <c r="B5" s="132">
+        <f>graphs_nrel!U6</f>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="C5" s="61" t="str">
         <f>'OECD Mapping'!A21</f>
@@ -3264,8 +3450,9 @@
       <c r="A6" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="44">
-        <v>0.11403508771929824</v>
+      <c r="B6" s="132">
+        <f>graphs_nrel!U7</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C6" s="112" t="str">
         <f>'OECD Mapping'!A21</f>
@@ -3286,8 +3473,9 @@
       <c r="A7" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="44">
-        <v>7.0175438596491224E-2</v>
+      <c r="B7" s="132">
+        <f>graphs_nrel!U8</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C7" s="112" t="str">
         <f>'OECD Mapping'!A29</f>
@@ -3308,8 +3496,9 @@
       <c r="A8" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="44">
-        <v>8.771929824561403E-2</v>
+      <c r="B8" s="132">
+        <f>graphs_nrel!U9</f>
+        <v>0.13095238095238096</v>
       </c>
       <c r="C8" s="112" t="str">
         <f>'OECD Mapping'!A29</f>
@@ -3330,8 +3519,9 @@
       <c r="A9" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="44">
-        <v>5.2631578947368418E-2</v>
+      <c r="B9" s="132">
+        <f>graphs_nrel!U10</f>
+        <v>5.9523809523809521E-2</v>
       </c>
       <c r="C9" s="112" t="str">
         <f>'OECD Mapping'!A38</f>
@@ -3352,8 +3542,9 @@
       <c r="A10" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="44">
-        <v>4.3859649122807015E-2</v>
+      <c r="B10" s="132">
+        <f>graphs_nrel!U11</f>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="C10" s="112" t="str">
         <f>'OECD Mapping'!A39</f>
@@ -3374,8 +3565,9 @@
       <c r="A11" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="44">
-        <v>1.7543859649122806E-2</v>
+      <c r="B11" s="132">
+        <f>graphs_nrel!U12</f>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="C11" s="112" t="str">
         <f>'OECD Mapping'!A38</f>
@@ -3396,8 +3588,9 @@
       <c r="A12" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="44">
-        <v>2.6315789473684209E-2</v>
+      <c r="B12" s="132">
+        <f>graphs_nrel!U13</f>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="C12" s="112" t="str">
         <f>'OECD Mapping'!A38</f>
@@ -3418,8 +3611,9 @@
       <c r="A13" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="46">
-        <v>4.3859649122807015E-2</v>
+      <c r="B13" s="132">
+        <f>graphs_nrel!U14</f>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="C13" s="111" t="str">
         <f>'OECD Mapping'!A38</f>
@@ -3440,7 +3634,7 @@
       <c r="A14" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="107"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3448,10 +3642,11 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.35350724637681297</v>
+        <v>258</v>
+      </c>
+      <c r="B15" s="134">
+        <f>graphs_nrel!R23</f>
+        <v>0.53533333333333433</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>'OECD Mapping'!A29</f>
@@ -3470,10 +3665,11 @@
     </row>
     <row r="16" spans="1:6" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="103" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" s="12">
-        <v>0.64649275362318703</v>
+        <v>259</v>
+      </c>
+      <c r="B16" s="134">
+        <f>graphs_nrel!R24</f>
+        <v>0.46466666666666567</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>'OECD Mapping'!A20</f>
@@ -3535,7 +3731,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="15"/>
@@ -3545,7 +3741,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B22" s="10">
         <v>0.42238735529675886</v>
@@ -3559,13 +3755,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E22" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B23" s="10">
         <v>9.8886671808605733E-2</v>
@@ -3579,13 +3775,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E23" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B24" s="10">
         <v>0.10948167235952777</v>
@@ -3599,13 +3795,13 @@
         <v>ISIC 25</v>
       </c>
       <c r="E24" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B25" s="10">
         <v>7.5577670596577259E-2</v>
@@ -3619,13 +3815,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B26" s="10">
         <v>0.70633337006146968</v>
@@ -3647,7 +3843,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="15"/>
@@ -3657,7 +3853,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" s="10">
         <v>0.10206517334414185</v>
@@ -3671,13 +3867,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B30" s="10">
         <v>1.1545687086842617E-2</v>
@@ -3691,13 +3887,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E30" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B31" s="10">
         <v>1.2169934344764067E-2</v>
@@ -3711,13 +3907,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E31" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" s="76">
         <v>2.2230409954455552E-2</v>
@@ -3731,13 +3927,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B33" s="10">
         <v>0.14801120473020407</v>
@@ -3749,7 +3945,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="5"/>
@@ -3759,7 +3955,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B35" s="10">
         <v>7.2733069481779617E-3</v>
@@ -3773,13 +3969,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B36" s="10">
         <v>8.238052356697197E-3</v>
@@ -3793,13 +3989,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B37" s="10">
         <v>1.2005323624779114E-2</v>
@@ -3813,13 +4009,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B38" s="10">
         <v>6.2295846331787133E-3</v>
@@ -3833,13 +4029,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B39" s="10">
         <v>3.6113133534920093E-2</v>
@@ -3853,13 +4049,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B40" s="10">
         <v>6.9859401097753071E-2</v>
@@ -3871,7 +4067,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="15"/>
@@ -3881,7 +4077,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="15"/>
@@ -3891,7 +4087,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B43" s="10">
         <v>7.014549101207153E-3</v>
@@ -3905,13 +4101,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B44" s="10">
         <v>2.1486946185092109E-3</v>
@@ -3925,13 +4121,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E44" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B45" s="10">
         <v>9.5450455413712103E-3</v>
@@ -3945,13 +4141,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B46" s="10">
         <v>5.202049820047309E-3</v>
@@ -3965,13 +4161,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E46" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B47" s="10">
         <v>0</v>
@@ -3985,13 +4181,13 @@
         <v>ISIC 68</v>
       </c>
       <c r="E47" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B48" s="10">
         <v>2.4339866130496596E-3</v>
@@ -4005,13 +4201,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E48" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B49" s="10">
         <v>2.6344325694184541E-2</v>
@@ -4023,7 +4219,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B50" s="10">
         <v>0.24421493152214169</v>
@@ -4035,7 +4231,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B51" s="10">
         <v>0.95054830158361137</v>
@@ -4047,7 +4243,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B52" s="10">
         <v>4.945169841638862E-2</v>
@@ -4061,7 +4257,7 @@
         <v>ISIC 84</v>
       </c>
       <c r="E52" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F52" s="4"/>
     </row>
@@ -4099,7 +4295,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -4109,7 +4305,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B57" s="10">
         <v>7.8764241372455399E-2</v>
@@ -4123,13 +4319,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E57" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B58" s="10">
         <v>7.4680169597587352E-3</v>
@@ -4143,13 +4339,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E58" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B59" s="10">
         <v>1.4002531799547626E-2</v>
@@ -4163,13 +4359,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E59" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B60" s="10">
         <v>0.10023479013176176</v>
@@ -4191,7 +4387,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B62" s="10">
         <v>2.4556826972294398E-2</v>
@@ -4205,13 +4401,13 @@
         <v>ISIC 45T47</v>
       </c>
       <c r="E62" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B63" s="10">
         <v>9.5771625191948158E-3</v>
@@ -4225,13 +4421,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E63" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B64" s="10">
         <v>4.7885812595974079E-3</v>
@@ -4245,13 +4441,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E64" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B65" s="10">
         <v>1.9154325038389632E-2</v>
@@ -4265,13 +4461,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E65" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B66" s="10">
         <v>0.18417620229220796</v>
@@ -4285,13 +4481,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E66" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B67" s="10">
         <v>9.5771625191948158E-3</v>
@@ -4305,13 +4501,13 @@
         <v>ISIC 19</v>
       </c>
       <c r="E67" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B68" s="10">
         <v>6.2251556374766308E-2</v>
@@ -4325,13 +4521,13 @@
         <v>ISIC 45T47</v>
       </c>
       <c r="E68" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B69" s="10">
         <v>0.54552991118951999</v>
@@ -4345,13 +4541,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E69" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B70" s="10">
         <v>0.8596117281651654</v>
@@ -4377,13 +4573,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E71" s="75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B72" s="10">
         <v>0</v>
@@ -4395,7 +4591,7 @@
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B73" s="12">
         <v>1</v>
@@ -4471,7 +4667,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>15</v>
@@ -4493,7 +4689,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>15</v>
@@ -4515,7 +4711,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E81" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>15</v>
@@ -4564,7 +4760,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E84" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>15</v>
@@ -4586,7 +4782,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E85" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>15</v>
@@ -4650,7 +4846,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E89" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>15</v>
@@ -4672,7 +4868,7 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>15</v>
@@ -4694,7 +4890,7 @@
         <v>ISIC 68</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>15</v>
@@ -4716,7 +4912,7 @@
         <v>ISIC 20</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>15</v>
@@ -4738,7 +4934,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E93" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>15</v>
@@ -4760,7 +4956,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E94" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>15</v>
@@ -4782,7 +4978,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E95" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>15</v>
@@ -4804,7 +5000,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E96" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>15</v>
@@ -4862,7 +5058,7 @@
         <v>ISIC 351</v>
       </c>
       <c r="E100" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>15</v>
@@ -4884,7 +5080,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E101" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>15</v>
@@ -4906,7 +5102,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E102" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>15</v>
@@ -4951,7 +5147,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E105" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>15</v>
@@ -4973,7 +5169,7 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E106" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>15</v>
@@ -4995,7 +5191,7 @@
         <v>ISIC 20</v>
       </c>
       <c r="E107" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F107" s="11" t="s">
         <v>15</v>
@@ -5078,7 +5274,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E114" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>42</v>
@@ -5100,7 +5296,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E115" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>42</v>
@@ -5122,7 +5318,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E116" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>42</v>
@@ -5170,7 +5366,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E119" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>42</v>
@@ -5192,7 +5388,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E120" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>42</v>
@@ -5214,7 +5410,7 @@
         <v>ISIC 351</v>
       </c>
       <c r="E121" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>42</v>
@@ -5276,7 +5472,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E125" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>42</v>
@@ -5298,7 +5494,7 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E126" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>42</v>
@@ -5320,7 +5516,7 @@
         <v>ISIC 68</v>
       </c>
       <c r="E127" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>42</v>
@@ -5342,7 +5538,7 @@
         <v>ISIC 84</v>
       </c>
       <c r="E128" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>42</v>
@@ -5364,7 +5560,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E129" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F129" s="11" t="s">
         <v>42</v>
@@ -5386,7 +5582,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E130" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>42</v>
@@ -5461,7 +5657,7 @@
         <v>ISIC 351</v>
       </c>
       <c r="E135" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>42</v>
@@ -5483,7 +5679,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E136" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>42</v>
@@ -5505,7 +5701,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E137" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>42</v>
@@ -5552,7 +5748,7 @@
         <v>ISIC 31T33</v>
       </c>
       <c r="E140" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>42</v>
@@ -5574,7 +5770,7 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E141" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>42</v>
@@ -5596,7 +5792,7 @@
         <v>ISIC 20</v>
       </c>
       <c r="E142" s="60" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F142" s="11" t="s">
         <v>42</v>
@@ -6011,7 +6207,7 @@
         <v>ISIC 68</v>
       </c>
       <c r="E168" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F168" s="52" t="s">
         <v>73</v>
@@ -6033,7 +6229,7 @@
         <v>ISIC 68</v>
       </c>
       <c r="E169" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F169" s="52" t="s">
         <v>73</v>
@@ -6081,7 +6277,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E172" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F172" s="52" t="s">
         <v>73</v>
@@ -6129,7 +6325,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E175" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F175" s="52" t="s">
         <v>73</v>
@@ -6151,7 +6347,7 @@
         <v>ISIC 27</v>
       </c>
       <c r="E176" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F176" s="52" t="s">
         <v>73</v>
@@ -6173,7 +6369,7 @@
         <v>ISIC 27</v>
       </c>
       <c r="E177" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F177" s="52" t="s">
         <v>73</v>
@@ -6195,7 +6391,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E178" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F178" s="52" t="s">
         <v>73</v>
@@ -6217,7 +6413,7 @@
         <v>ISIC 27</v>
       </c>
       <c r="E179" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F179" s="52" t="s">
         <v>73</v>
@@ -6239,7 +6435,7 @@
         <v>ISIC 27</v>
       </c>
       <c r="E180" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F180" s="52" t="s">
         <v>73</v>
@@ -6261,7 +6457,7 @@
         <v>ISIC 27</v>
       </c>
       <c r="E181" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F181" s="52" t="s">
         <v>73</v>
@@ -6309,7 +6505,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E184" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F184" s="52" t="s">
         <v>73</v>
@@ -6331,7 +6527,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E185" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F185" s="52" t="s">
         <v>73</v>
@@ -6353,7 +6549,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E186" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F186" s="52" t="s">
         <v>73</v>
@@ -6375,7 +6571,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E187" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F187" s="52" t="s">
         <v>73</v>
@@ -6397,7 +6593,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E188" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F188" s="52" t="s">
         <v>73</v>
@@ -6419,7 +6615,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E189" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F189" s="52" t="s">
         <v>73</v>
@@ -6441,7 +6637,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E190" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F190" s="52" t="s">
         <v>73</v>
@@ -6463,7 +6659,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E191" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F191" s="52" t="s">
         <v>73</v>
@@ -6511,7 +6707,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E194" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F194" s="52" t="s">
         <v>73</v>
@@ -6533,7 +6729,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E195" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F195" s="52" t="s">
         <v>73</v>
@@ -6555,7 +6751,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E196" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F196" s="52" t="s">
         <v>73</v>
@@ -6577,7 +6773,7 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E197" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F197" s="52" t="s">
         <v>73</v>
@@ -6599,7 +6795,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E198" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F198" s="52" t="s">
         <v>73</v>
@@ -6689,7 +6885,7 @@
         <v>ISIC 351</v>
       </c>
       <c r="E204" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F204" s="11" t="s">
         <v>73</v>
@@ -6723,7 +6919,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E206" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F206" s="11" t="s">
         <v>73</v>
@@ -6745,7 +6941,7 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E207" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F207" s="11" t="s">
         <v>73</v>
@@ -6767,7 +6963,7 @@
         <v>ISIC 84</v>
       </c>
       <c r="E208" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F208" s="11" t="s">
         <v>73</v>
@@ -6789,7 +6985,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E209" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>73</v>
@@ -6811,7 +7007,7 @@
         <v>ISIC 68</v>
       </c>
       <c r="E210" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>73</v>
@@ -6833,7 +7029,7 @@
         <v>ISIC 27</v>
       </c>
       <c r="E211" s="60" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>73</v>
@@ -6907,7 +7103,7 @@
     </row>
     <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="103" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B217" s="42">
         <v>1</v>
@@ -6921,16 +7117,16 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E217" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="219" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A219" s="113" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B219" s="114"/>
       <c r="C219" s="114"/>
@@ -7213,7 +7409,7 @@
     <row r="234" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="235" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A235" s="113" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B235" s="114"/>
       <c r="C235" s="114"/>
@@ -7255,7 +7451,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="68" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
@@ -7265,7 +7461,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="68" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B239" s="10">
         <v>2.6684437410237714E-2</v>
@@ -7279,15 +7475,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E239" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F239" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="68" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B240" s="10">
         <v>2.6684437410237714E-2</v>
@@ -7299,7 +7495,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="68" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B241" s="10"/>
       <c r="C241" s="15"/>
@@ -7309,7 +7505,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B242" s="10">
         <v>7.5284333648528773E-3</v>
@@ -7323,15 +7519,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E242" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F242" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="68" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B243" s="10">
         <v>8.9987349448319778E-2</v>
@@ -7345,15 +7541,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E243" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F243" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="101" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B244" s="10">
         <v>5.3165010087191204E-3</v>
@@ -7367,15 +7563,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E244" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F244" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="68" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B245" s="10">
         <v>2.9357977769593591E-2</v>
@@ -7389,15 +7585,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E245" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F245" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="101" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B246" s="10">
         <v>1.1713485103844592E-2</v>
@@ -7411,15 +7607,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E246" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F246" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="100" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B247" s="10">
         <v>0.14390374669532996</v>
@@ -7443,7 +7639,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="100" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="15"/>
@@ -7453,7 +7649,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B250" s="10">
         <v>5.9171738835744038E-2</v>
@@ -7467,15 +7663,15 @@
         <v>ISIC 231</v>
       </c>
       <c r="E250" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F250" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="68" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B251" s="10">
         <v>0.18761234551146613</v>
@@ -7489,15 +7685,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E251" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F251" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="68" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B252" s="10">
         <v>5.4478481440208094E-2</v>
@@ -7511,15 +7707,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E252" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F252" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="68" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B253" s="10">
         <v>4.0472974263582373E-2</v>
@@ -7533,15 +7729,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E253" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F253" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="68" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B254" s="10">
         <v>3.3202284168667398E-2</v>
@@ -7555,15 +7751,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E254" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F254" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B255" s="10">
         <v>0.11718436104510066</v>
@@ -7577,15 +7773,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E255" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F255" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="68" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B256" s="10">
         <v>7.9186887114255214E-2</v>
@@ -7599,15 +7795,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E256" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F256" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="68" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B257" s="10">
         <v>2.6662594760242975E-3</v>
@@ -7621,15 +7817,15 @@
         <v>ISIC 27</v>
       </c>
       <c r="E257" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F257" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="68" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B258" s="10">
         <v>2.3065838394442859E-3</v>
@@ -7643,15 +7839,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E258" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F258" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="68" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B259" s="10">
         <v>3.5527798304773789E-2</v>
@@ -7665,15 +7861,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E259" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F259" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B260" s="10">
         <v>5.1620006644230103E-2</v>
@@ -7687,15 +7883,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E260" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F260" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="68" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B261" s="10">
         <v>1.7845445045700584E-2</v>
@@ -7709,15 +7905,15 @@
         <v>ISIC 27</v>
       </c>
       <c r="E261" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F261" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="68" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B262" s="10">
         <v>2.0360262148428034E-2</v>
@@ -7731,10 +7927,10 @@
         <v>ISIC 28</v>
       </c>
       <c r="E262" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F262" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -7761,7 +7957,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="68" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B265" s="10">
         <v>0</v>
@@ -7775,15 +7971,15 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E265" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F265" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="68" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B266" s="10">
         <v>0.10362016195350927</v>
@@ -7797,15 +7993,15 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E266" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F266" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="68" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B267" s="10">
         <v>2.4156226103298116E-2</v>
@@ -7819,10 +8015,10 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E267" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F267" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
@@ -7851,7 +8047,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="68" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
@@ -7881,7 +8077,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="82" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B273" s="48"/>
       <c r="C273" s="48"/>
@@ -7891,7 +8087,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="68" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B274" s="10">
         <v>0.10957138163680816</v>
@@ -7905,15 +8101,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E274" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F274" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="68" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B275" s="10">
         <v>0.10103758199684273</v>
@@ -7927,15 +8123,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E275" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F275" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="68" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B276" s="10">
         <v>6.9437413759806402E-2</v>
@@ -7949,15 +8145,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E276" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F276" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="68" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B277" s="10">
         <v>9.465351814404413E-2</v>
@@ -7971,15 +8167,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E277" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F277" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="68" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B278" s="10">
         <v>0.37469989553750138</v>
@@ -8001,7 +8197,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="68" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B280" s="10">
         <v>6.6213883181614627E-2</v>
@@ -8015,13 +8211,13 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E280" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F280" s="4"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="68" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B281" s="10">
         <v>1.7192251878116429E-2</v>
@@ -8035,15 +8231,15 @@
         <v>ISIC 20</v>
       </c>
       <c r="E281" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F281" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="68" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B282" s="10">
         <v>7.7661551587353536E-2</v>
@@ -8057,15 +8253,15 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E282" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F282" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="68" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B283" s="10">
         <v>4.145585480458365E-2</v>
@@ -8079,15 +8275,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E283" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F283" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="68" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B284" s="10">
         <v>0</v>
@@ -8101,15 +8297,15 @@
         <v>ISIC 19</v>
       </c>
       <c r="E284" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F284" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="68" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B285" s="10">
         <v>0.42277656301083044</v>
@@ -8123,15 +8319,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E285" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F285" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="68" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B286" s="10">
         <v>0</v>
@@ -8145,15 +8341,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E286" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F286" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="68" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B287" s="10">
         <v>0.62530010446249862</v>
@@ -8177,7 +8373,7 @@
     </row>
     <row r="289" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A289" s="113" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B289" s="114"/>
       <c r="C289" s="114"/>
@@ -8219,7 +8415,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="71" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B292" s="15"/>
       <c r="C292" s="15"/>
@@ -8229,7 +8425,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="68" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B293" s="10">
         <v>5.8784250379308753E-4</v>
@@ -8243,7 +8439,7 @@
         <v>ISIC 07T08</v>
       </c>
       <c r="E293" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F293" s="11" t="s">
         <v>114</v>
@@ -8251,7 +8447,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="68" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B294" s="10">
         <v>2.2103717917625509E-2</v>
@@ -8265,7 +8461,7 @@
         <v>ISIC 07T08</v>
       </c>
       <c r="E294" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F294" s="11" t="s">
         <v>114</v>
@@ -8273,7 +8469,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="68" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B295" s="10">
         <v>3.6648621011477336E-4</v>
@@ -8287,7 +8483,7 @@
         <v>ISIC 239</v>
       </c>
       <c r="E295" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F295" s="11" t="s">
         <v>114</v>
@@ -8295,7 +8491,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="68" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B296" s="10">
         <v>2.3001470420079329E-3</v>
@@ -8309,7 +8505,7 @@
         <v>ISIC 19</v>
       </c>
       <c r="E296" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F296" s="11" t="s">
         <v>114</v>
@@ -8317,7 +8513,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B297" s="10">
         <v>1.5283905098620277E-3</v>
@@ -8331,7 +8527,7 @@
         <v>ISIC 25</v>
       </c>
       <c r="E297" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F297" s="11" t="s">
         <v>114</v>
@@ -8339,7 +8535,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="68" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B298" s="10">
         <v>4.8507419772996917E-4</v>
@@ -8353,7 +8549,7 @@
         <v>ISIC 20</v>
       </c>
       <c r="E298" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>114</v>
@@ -8361,7 +8557,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="68" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B299" s="10">
         <v>5.827473972334983E-3</v>
@@ -8375,7 +8571,7 @@
         <v>ISIC 07T08</v>
       </c>
       <c r="E299" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F299" s="11" t="s">
         <v>114</v>
@@ -8383,7 +8579,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="68" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B300" s="10">
         <v>6.8886743694495669E-4</v>
@@ -8397,7 +8593,7 @@
         <v>ISIC 55T56</v>
       </c>
       <c r="E300" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>114</v>
@@ -8405,7 +8601,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="68" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B301" s="10">
         <v>2.9735306400568507E-3</v>
@@ -8419,7 +8615,7 @@
         <v>ISIC 351</v>
       </c>
       <c r="E301" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>114</v>
@@ -8427,7 +8623,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="71" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B302" s="10"/>
       <c r="C302" s="10"/>
@@ -8437,7 +8633,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="68" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B303" s="10">
         <v>0.50174694509567619</v>
@@ -8451,7 +8647,7 @@
         <v>ISIC 351</v>
       </c>
       <c r="E303" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F303" s="11" t="s">
         <v>114</v>
@@ -8459,7 +8655,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="68" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B304" s="10">
         <v>0.46056987354185763</v>
@@ -8473,7 +8669,7 @@
         <v>ISIC 28</v>
       </c>
       <c r="E304" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F304" s="11" t="s">
         <v>114</v>
@@ -8481,7 +8677,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B305" s="10">
         <v>8.2165093199600733E-4</v>
@@ -8495,7 +8691,7 @@
         <v>ISIC 84</v>
       </c>
       <c r="E305" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F305" s="11" t="s">
         <v>114</v>
@@ -8503,7 +8699,7 @@
     </row>
     <row r="306" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B306" s="53">
         <v>0</v>
@@ -8517,7 +8713,7 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E306" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F306" s="27" t="s">
         <v>114</v>
@@ -8549,7 +8745,7 @@
         <v>ISIC 351</v>
       </c>
       <c r="E308" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F308" s="52" t="s">
         <v>70</v>
@@ -8557,7 +8753,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="68" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B309" s="10">
         <v>0.58345780433159067</v>
@@ -8571,7 +8767,7 @@
         <v>ISIC 31T33</v>
       </c>
       <c r="E309" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F309" s="52" t="s">
         <v>70</v>
@@ -8579,7 +8775,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="68" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B310" s="10">
         <v>0.10296863330843913</v>
@@ -8593,7 +8789,7 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E310" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F310" s="52" t="s">
         <v>70</v>
@@ -8601,7 +8797,7 @@
     </row>
     <row r="311" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B311" s="53">
         <v>8.4858103061986545E-2</v>
@@ -8615,7 +8811,7 @@
         <v>ISIC 351</v>
       </c>
       <c r="E311" s="47" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F311" s="52" t="s">
         <v>70</v>
@@ -8633,7 +8829,7 @@
     </row>
     <row r="313" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="89" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B313" s="57">
         <v>1</v>
@@ -8647,7 +8843,7 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E313" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F313" s="52" t="s">
         <v>70</v>
@@ -8660,7 +8856,7 @@
     </row>
     <row r="315" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A315" s="113" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B315" s="114"/>
       <c r="C315" s="114"/>
@@ -8702,7 +8898,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B318" s="15"/>
       <c r="C318" s="15"/>
@@ -8712,7 +8908,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B319" s="10">
         <v>3.2241374243532309E-2</v>
@@ -8726,13 +8922,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E319" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F319" s="11"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B320" s="10">
         <v>1.6038016902321799E-2</v>
@@ -8746,13 +8942,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E320" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F320" s="11"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B321" s="10">
         <v>1.2400528580860307E-2</v>
@@ -8766,13 +8962,13 @@
         <v>ISIC 25</v>
       </c>
       <c r="E321" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F321" s="11"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B322" s="10">
         <v>0</v>
@@ -8786,13 +8982,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E322" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F322" s="11"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B323" s="10">
         <v>0</v>
@@ -8806,13 +9002,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E323" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F323" s="11"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B324" s="10">
         <v>6.0679919726714417E-2</v>
@@ -8824,7 +9020,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B325" s="10"/>
       <c r="C325" s="15"/>
@@ -8834,7 +9030,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B326" s="10">
         <v>5.9790282669963217E-3</v>
@@ -8848,13 +9044,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E326" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F326" s="11"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B327" s="10">
         <v>2.0458601035032161E-2</v>
@@ -8868,13 +9064,13 @@
         <v>ISIC 25</v>
       </c>
       <c r="E327" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F327" s="11"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B328" s="10">
         <v>1.3717633441647122E-2</v>
@@ -8888,13 +9084,13 @@
         <v>ISIC 25</v>
       </c>
       <c r="E328" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F328" s="4"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B329" s="76">
         <v>4.9670766079714648E-3</v>
@@ -8908,13 +9104,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E329" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F329" s="11"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B330" s="10">
         <v>0.13238799814205607</v>
@@ -8928,13 +9124,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E330" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F330" s="11"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B331" s="10">
         <v>5.6797062509543479E-2</v>
@@ -8948,13 +9144,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E331" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F331" s="4"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B332" s="10">
         <v>8.1471472548051413E-2</v>
@@ -8968,13 +9164,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E332" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F332" s="4"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B333" s="10">
         <v>0.31577887255129805</v>
@@ -8986,7 +9182,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B334" s="10"/>
       <c r="C334" s="15"/>
@@ -8996,7 +9192,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B335" s="10">
         <v>6.2166597276063201E-3</v>
@@ -9010,13 +9206,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E335" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F335" s="4"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B336" s="10">
         <v>4.1683133284005254E-3</v>
@@ -9030,13 +9226,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E336" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F336" s="4"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B337" s="10">
         <v>4.2334724953147105E-3</v>
@@ -9050,13 +9246,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E337" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F337" s="4"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B338" s="10">
         <v>7.206943770706753E-2</v>
@@ -9070,13 +9266,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E338" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F338" s="4"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B339" s="10">
         <v>5.6737713489452599E-2</v>
@@ -9090,13 +9286,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E339" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F339" s="4"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B340" s="10">
         <v>2.5443069457383744E-2</v>
@@ -9110,13 +9306,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E340" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F340" s="4"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B341" s="10">
         <v>0.16886866620522542</v>
@@ -9128,7 +9324,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B342" s="10"/>
       <c r="C342" s="15"/>
@@ -9138,7 +9334,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B343" s="10">
         <v>8.7151669566778289E-3</v>
@@ -9152,13 +9348,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E343" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F343" s="4"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B344" s="10"/>
       <c r="C344" s="15"/>
@@ -9168,7 +9364,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B345" s="10">
         <v>6.067991972671441E-2</v>
@@ -9182,13 +9378,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E345" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F345" s="4"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B346" s="10">
         <v>1.533150424508801E-2</v>
@@ -9202,13 +9398,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E346" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F346" s="4"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B347" s="10">
         <v>4.5994538507349268E-3</v>
@@ -9222,13 +9418,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E347" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F347" s="4"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B348" s="10">
         <v>3.4346170594054541E-3</v>
@@ -9242,13 +9438,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E348" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F348" s="4"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B349" s="10">
         <v>5.1105001264250743E-2</v>
@@ -9262,13 +9458,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E349" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F349" s="4"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B350" s="10">
         <v>0</v>
@@ -9282,13 +9478,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E350" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F350" s="4"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B351" s="10">
         <v>0.18243254907596901</v>
@@ -9302,13 +9498,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E351" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F351" s="4"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B352" s="10">
         <v>7.2083450595899117E-3</v>
@@ -9322,13 +9518,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E352" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F352" s="4"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B353" s="10">
         <v>2.6145500870033485E-2</v>
@@ -9342,13 +9538,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E353" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F353" s="4"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B354" s="10">
         <v>0.35093689115178595</v>
@@ -9360,7 +9556,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B355" s="10"/>
       <c r="C355" s="15"/>
@@ -9370,7 +9566,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B356" s="10">
         <v>0</v>
@@ -9384,13 +9580,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E356" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F356" s="4"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B357" s="10">
         <v>0</v>
@@ -9404,13 +9600,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E357" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F357" s="4"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B358" s="10">
         <v>0</v>
@@ -9424,13 +9620,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E358" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F358" s="4"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B359" s="10">
         <v>0</v>
@@ -9444,13 +9640,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E359" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F359" s="4"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B360" s="10">
         <v>0</v>
@@ -9462,7 +9658,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B361" s="10">
         <v>9.5020483408298523E-2</v>
@@ -9476,13 +9672,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E361" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F361" s="4"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B362" s="10">
         <v>1</v>
@@ -9494,7 +9690,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B363" s="10">
         <v>0</v>
@@ -9508,13 +9704,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E363" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F363" s="4"/>
     </row>
     <row r="364" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="54" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B364" s="53">
         <v>1</v>
@@ -9546,7 +9742,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="14" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B367" s="10">
         <v>6.3182869088423882E-2</v>
@@ -9560,13 +9756,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E367" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F367" s="4"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B368" s="10">
         <v>0</v>
@@ -9580,13 +9776,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E368" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F368" s="4"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B369" s="10">
         <v>1.1700531406933206E-2</v>
@@ -9600,13 +9796,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E369" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F369" s="4"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B370" s="10">
         <v>5.6162549668272839E-2</v>
@@ -9620,13 +9816,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E370" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F370" s="4"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B371" s="10">
         <v>0.13104595016362994</v>
@@ -9648,7 +9844,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B373" s="10">
         <v>0.19943207701162591</v>
@@ -9662,13 +9858,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E373" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F373" s="4"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B374" s="10">
         <v>9.9716038505812954E-2</v>
@@ -9682,13 +9878,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E374" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F374" s="4"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B375" s="10">
         <v>4.2735445073919839E-2</v>
@@ -9702,13 +9898,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E375" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F375" s="4"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B376" s="10">
         <v>6.4103167610879766E-2</v>
@@ -9722,13 +9918,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E376" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F376" s="4"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B377" s="10">
         <v>0.46296732163413162</v>
@@ -9742,13 +9938,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E377" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F377" s="4"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B378" s="10">
         <v>0.86895404983637015</v>
@@ -9760,7 +9956,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B379" s="10">
         <v>1</v>
@@ -9772,7 +9968,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B380" s="10">
         <v>0</v>
@@ -9786,13 +9982,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E380" s="75" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F380" s="4"/>
     </row>
     <row r="381" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B381" s="12">
         <v>1</v>
@@ -9894,14 +10090,355 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E623600-D649-462B-B4E8-0E13E96FB9C2}">
+  <dimension ref="A1:W24"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="16" max="16" width="21.1796875" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="T3" s="123" t="s">
+        <v>458</v>
+      </c>
+      <c r="U3" s="124"/>
+      <c r="V3" s="125">
+        <f>SUM(U5:U14)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
+        <v>459</v>
+      </c>
+      <c r="R4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P5" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q5" s="58">
+        <v>4</v>
+      </c>
+      <c r="R5" s="126">
+        <f>Q5/$Q$20</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="T5" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="U5" s="125">
+        <f>R19</f>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P6" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q6" s="58">
+        <v>2</v>
+      </c>
+      <c r="R6" s="126">
+        <f t="shared" ref="R6:R19" si="0">Q6/$Q$20</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="T6" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" s="125">
+        <f>R17</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P7" s="58" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q7" s="58">
+        <v>2</v>
+      </c>
+      <c r="R7" s="126">
+        <f t="shared" si="0"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="T7" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="U7" s="125">
+        <f>R14</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P8" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8" s="128"/>
+      <c r="T8" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="U8" s="125">
+        <f>R15</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" s="128"/>
+      <c r="T9" s="127" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="125">
+        <f>R13</f>
+        <v>0.13095238095238096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P10" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" s="128"/>
+      <c r="T10" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="U10" s="125">
+        <f>R12</f>
+        <v>5.9523809523809521E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P11" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q11" s="58">
+        <v>4</v>
+      </c>
+      <c r="R11" s="126">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="T11" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="125">
+        <f>R11</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P12" s="58" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q12" s="58">
+        <v>5</v>
+      </c>
+      <c r="R12" s="126">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="T12" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="U12" s="125">
+        <f>R6</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P13" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q13" s="58">
+        <v>11</v>
+      </c>
+      <c r="R13" s="126">
+        <f t="shared" si="0"/>
+        <v>0.13095238095238096</v>
+      </c>
+      <c r="T13" s="127" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="125">
+        <f>R7</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P14" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q14" s="58">
+        <v>7</v>
+      </c>
+      <c r="R14" s="126">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="T14" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="U14" s="125">
+        <f>R5</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P15" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q15" s="58">
+        <v>12</v>
+      </c>
+      <c r="R15" s="126">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T15" s="129"/>
+      <c r="U15" s="130"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P16" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="128"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="131"/>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P17" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q17" s="58">
+        <v>4</v>
+      </c>
+      <c r="R17" s="126">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="T17" s="127"/>
+      <c r="U17" s="131"/>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="128"/>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P19" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q19" s="58">
+        <v>33</v>
+      </c>
+      <c r="R19" s="126">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="Q20" s="58">
+        <f>SUM(Q5:Q7,Q11:Q15,Q17,Q19)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P22" s="58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P23" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q23">
+        <v>1581937.8862804582</v>
+      </c>
+      <c r="R23" s="128">
+        <f>Q23/SUM($Q$23:$Q$24)</f>
+        <v>0.53533333333333433</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P24" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q24">
+        <v>1373114.2051525216</v>
+      </c>
+      <c r="R24" s="128">
+        <f>Q24/SUM($Q$23:$Q$24)</f>
+        <v>0.46466666666666567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:AQ60"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25:AC26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9911,7 +10448,7 @@
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -9961,10 +10498,10 @@
         <v>163</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E2" s="93" t="s">
         <v>164</v>
@@ -9988,25 +10525,25 @@
         <v>170</v>
       </c>
       <c r="L2" s="93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M2" s="93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N2" s="93" t="s">
         <v>171</v>
       </c>
       <c r="O2" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="P2" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q2" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="R2" s="93" t="s">
         <v>437</v>
-      </c>
-      <c r="P2" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q2" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="R2" s="93" t="s">
-        <v>440</v>
       </c>
       <c r="S2" s="93" t="s">
         <v>172</v>
@@ -10030,13 +10567,13 @@
         <v>178</v>
       </c>
       <c r="Z2" s="93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA2" s="93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB2" s="93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC2" s="93" t="s">
         <v>179</v>
@@ -11027,11 +11564,11 @@
       </c>
       <c r="T8" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'Pre ISIC Consolidation'!T$2,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>0.41228070175438591</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="U8" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'Pre ISIC Consolidation'!U$2,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>0.24561403508771928</v>
+        <v>0.13095238095238093</v>
       </c>
       <c r="V8" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'Pre ISIC Consolidation'!V$2,'Cost Breakdowns'!$B$4:$B$13)</f>
@@ -11063,7 +11600,7 @@
       </c>
       <c r="AC8" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'Pre ISIC Consolidation'!AC$2,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>0.15789473684210525</v>
+        <v>0.27380952380952384</v>
       </c>
       <c r="AD8" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'Pre ISIC Consolidation'!AD$2,'Cost Breakdowns'!$B$4:$B$13)</f>
@@ -11099,11 +11636,11 @@
       </c>
       <c r="AL8" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'Pre ISIC Consolidation'!AL$2,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>0.14035087719298245</v>
+        <v>0.15476190476190477</v>
       </c>
       <c r="AM8" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'Pre ISIC Consolidation'!AM$2,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="AN8" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'Pre ISIC Consolidation'!AN$2,'Cost Breakdowns'!$B$4:$B$13)</f>
@@ -12854,7 +13391,7 @@
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A20" s="95" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B20" s="95"/>
       <c r="C20" s="95"/>
@@ -12904,10 +13441,10 @@
         <v>163</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E21" s="93" t="s">
         <v>164</v>
@@ -12931,25 +13468,25 @@
         <v>170</v>
       </c>
       <c r="L21" s="93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M21" s="93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N21" s="93" t="s">
         <v>171</v>
       </c>
       <c r="O21" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="P21" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q21" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="R21" s="93" t="s">
         <v>437</v>
-      </c>
-      <c r="P21" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q21" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="R21" s="93" t="s">
-        <v>440</v>
       </c>
       <c r="S21" s="93" t="s">
         <v>172</v>
@@ -12973,13 +13510,13 @@
         <v>178</v>
       </c>
       <c r="Z21" s="93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA21" s="93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB21" s="93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC21" s="93" t="s">
         <v>179</v>
@@ -13970,7 +14507,7 @@
       </c>
       <c r="T27" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$15:$D$16,'Pre ISIC Consolidation'!T$2,'Cost Breakdowns'!$B$15:$B$16)</f>
-        <v>0.64649275362318703</v>
+        <v>0.46466666666666567</v>
       </c>
       <c r="U27" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$15:$D$16,'Pre ISIC Consolidation'!U$2,'Cost Breakdowns'!$B$15:$B$16)</f>
@@ -14006,7 +14543,7 @@
       </c>
       <c r="AC27" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$15:$D$16,'Pre ISIC Consolidation'!AC$2,'Cost Breakdowns'!$B$15:$B$16)</f>
-        <v>0.35350724637681297</v>
+        <v>0.53533333333333433</v>
       </c>
       <c r="AD27" s="62">
         <f>SUMIF('Cost Breakdowns'!$D$15:$D$16,'Pre ISIC Consolidation'!AD$2,'Cost Breakdowns'!$B$15:$B$16)</f>
@@ -15797,7 +16334,7 @@
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A39" s="95" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B39" s="95"/>
       <c r="C39" s="95"/>
@@ -15847,10 +16384,10 @@
         <v>163</v>
       </c>
       <c r="C40" s="93" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E40" s="93" t="s">
         <v>164</v>
@@ -15874,25 +16411,25 @@
         <v>170</v>
       </c>
       <c r="L40" s="93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M40" s="93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N40" s="93" t="s">
         <v>171</v>
       </c>
       <c r="O40" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="P40" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q40" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="R40" s="93" t="s">
         <v>437</v>
-      </c>
-      <c r="P40" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q40" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="R40" s="93" t="s">
-        <v>440</v>
       </c>
       <c r="S40" s="93" t="s">
         <v>172</v>
@@ -15916,13 +16453,13 @@
         <v>178</v>
       </c>
       <c r="Z40" s="93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA40" s="93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB40" s="93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC40" s="93" t="s">
         <v>179</v>
@@ -18572,7 +19109,7 @@
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A58" s="95" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B58" s="95"/>
       <c r="C58" s="95"/>
@@ -18619,16 +19156,16 @@
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B59" s="93" t="s">
         <v>163</v>
       </c>
       <c r="C59" s="93" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D59" s="93" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E59" s="93" t="s">
         <v>164</v>
@@ -18652,25 +19189,25 @@
         <v>170</v>
       </c>
       <c r="L59" s="93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M59" s="93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N59" s="93" t="s">
         <v>171</v>
       </c>
       <c r="O59" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="P59" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q59" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="R59" s="93" t="s">
         <v>437</v>
-      </c>
-      <c r="P59" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q59" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="R59" s="93" t="s">
-        <v>440</v>
       </c>
       <c r="S59" s="93" t="s">
         <v>172</v>
@@ -18694,13 +19231,13 @@
         <v>178</v>
       </c>
       <c r="Z59" s="93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA59" s="93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB59" s="93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC59" s="93" t="s">
         <v>179</v>
@@ -18750,16 +19287,16 @@
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B60" s="93" t="s">
         <v>163</v>
       </c>
       <c r="C60" s="93" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D60" s="93" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E60" s="93" t="s">
         <v>164</v>
@@ -18783,25 +19320,25 @@
         <v>170</v>
       </c>
       <c r="L60" s="93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M60" s="93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N60" s="93" t="s">
         <v>171</v>
       </c>
       <c r="O60" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="P60" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q60" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="R60" s="93" t="s">
         <v>437</v>
-      </c>
-      <c r="P60" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q60" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="R60" s="93" t="s">
-        <v>440</v>
       </c>
       <c r="S60" s="93" t="s">
         <v>172</v>
@@ -18825,13 +19362,13 @@
         <v>178</v>
       </c>
       <c r="Z60" s="93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA60" s="93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB60" s="93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC60" s="93" t="s">
         <v>178</v>
@@ -18884,14 +19421,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:AQ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -18926,10 +19463,10 @@
         <v>163</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E1" s="93" t="s">
         <v>164</v>
@@ -18953,25 +19490,25 @@
         <v>170</v>
       </c>
       <c r="L1" s="93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M1" s="93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N1" s="93" t="s">
         <v>171</v>
       </c>
       <c r="O1" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="93" t="s">
         <v>437</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>440</v>
       </c>
       <c r="S1" s="93" t="s">
         <v>172</v>
@@ -18995,13 +19532,13 @@
         <v>178</v>
       </c>
       <c r="Z1" s="93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA1" s="93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB1" s="93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC1" s="93" t="s">
         <v>179</v>
@@ -19992,11 +20529,11 @@
       </c>
       <c r="T7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!T$1)</f>
-        <v>0.41228070175438591</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="U7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!U$1)</f>
-        <v>0.24561403508771928</v>
+        <v>0.13095238095238093</v>
       </c>
       <c r="V7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!V$1)</f>
@@ -20012,7 +20549,7 @@
       </c>
       <c r="Y7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!Y$1)</f>
-        <v>0.15789473684210525</v>
+        <v>0.27380952380952384</v>
       </c>
       <c r="Z7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!Z$1)</f>
@@ -20064,11 +20601,11 @@
       </c>
       <c r="AL7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!AL$1)</f>
-        <v>0.14035087719298245</v>
+        <v>0.15476190476190477</v>
       </c>
       <c r="AM7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!AM$1)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="AN7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B8:$AQ8,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!AN$1)</f>
@@ -21822,7 +22359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -21863,10 +22400,10 @@
         <v>163</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E1" s="93" t="s">
         <v>164</v>
@@ -21890,25 +22427,25 @@
         <v>170</v>
       </c>
       <c r="L1" s="93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M1" s="93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N1" s="93" t="s">
         <v>171</v>
       </c>
       <c r="O1" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="93" t="s">
         <v>437</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>440</v>
       </c>
       <c r="S1" s="93" t="s">
         <v>172</v>
@@ -21932,13 +22469,13 @@
         <v>178</v>
       </c>
       <c r="Z1" s="93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA1" s="93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB1" s="93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC1" s="93" t="s">
         <v>179</v>
@@ -22929,7 +23466,7 @@
       </c>
       <c r="T7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B27:$AQ27,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!T$1)</f>
-        <v>0.64649275362318703</v>
+        <v>0.46466666666666567</v>
       </c>
       <c r="U7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B27:$AQ27,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!U$1)</f>
@@ -22949,7 +23486,7 @@
       </c>
       <c r="Y7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B27:$AQ27,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!Y$1)</f>
-        <v>0.35350724637681297</v>
+        <v>0.53533333333333433</v>
       </c>
       <c r="Z7" s="62">
         <f>SUMIFS('Pre ISIC Consolidation'!$B27:$AQ27,'Pre ISIC Consolidation'!$B$60:$AQ$60,'SoESCaOMCbIC-capital'!Z$1)</f>
@@ -24759,7 +25296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -24800,10 +25337,10 @@
         <v>163</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E1" s="93" t="s">
         <v>164</v>
@@ -24827,25 +25364,25 @@
         <v>170</v>
       </c>
       <c r="L1" s="93" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M1" s="93" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N1" s="93" t="s">
         <v>171</v>
       </c>
       <c r="O1" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="93" t="s">
         <v>437</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>439</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>440</v>
       </c>
       <c r="S1" s="93" t="s">
         <v>172</v>
@@ -24869,13 +25406,13 @@
         <v>178</v>
       </c>
       <c r="Z1" s="93" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA1" s="93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB1" s="93" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC1" s="93" t="s">
         <v>179</v>
